--- a/biology/Histoire de la zoologie et de la botanique/Daniel_Œhlert/Daniel_Œhlert.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Daniel_Œhlert/Daniel_Œhlert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Daniel_%C5%92hlert</t>
+          <t>Daniel_Œhlert</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Daniel Victor Œhlert (né le 1er novembre 1849 à Laval et mort le 17 septembre 1920 dans la même ville) est un scientifique français. Ses fonctions de bibliothécaire, puis de conservateur des musées d'archéologie et d'histoire naturelle de Laval, lui permettent de se consacrer à la paléontologie et à la géologie. Sa femme est sa principale collaboratrice et souvent l'inspiratrice de ses études scientifiques[1]. C'est un spécialiste reconnu des faunes paléozoïques de l'Ouest de la France[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daniel Victor Œhlert (né le 1er novembre 1849 à Laval et mort le 17 septembre 1920 dans la même ville) est un scientifique français. Ses fonctions de bibliothécaire, puis de conservateur des musées d'archéologie et d'histoire naturelle de Laval, lui permettent de se consacrer à la paléontologie et à la géologie. Sa femme est sa principale collaboratrice et souvent l'inspiratrice de ses études scientifiques. C'est un spécialiste reconnu des faunes paléozoïques de l'Ouest de la France.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Daniel_%C5%92hlert</t>
+          <t>Daniel_Œhlert</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,90 +525,204 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Origine et famille
-Son grand-père est Jean-Daniel Œhlert (ou Öhlert), dit le Grand-Pierrot ou le Grand-Allemand (° 6 juillet 1765 Ostheim - † 5 décembre 1814), est un militaire qui s'illustra particulièrement lors de la Chouannerie en Mayenne. Son père est Victor Henri Œhlert (1803-1883), propriétaire négociant et sa mère est Adèle Féron (1820-1895).
-Il s'est marié avec Pauline Crié[3] (1854-1911) en 1874 à Laval. Ils n'ont pas eu d'enfants.
-Pauline Œhlert est une collaboratrice infatigable pour son mari[4]. Avec elle, il parcourut tous les coins de la région, il fit tous ses voyages en France et à l'étranger, il rassembla tous les matériaux paléontologiques, base de leurs travaux. Ensemble, ils effectuèrent le classement des collections du Musée, ainsi que la rédaction tous leurs mémoires. Leur collaboration se traduisait par la signature D.-P. OEhlert (Daniel-Pauline).
-À la mort de sa femme, il ne s'occupa plus que d'archéologie. Il entreprit alors de restaurer, presque entièrement à ses frais, le château de Laval[5]. Il employa toute son activité à la restauration de ce monument historique[6]. Il y meurt sur sa demande en 1920.
-Par testament, il a laissé à la ville de Laval tout ce qui lui en restait, pour achever son œuvre et installer dans le château transformé en musée, ses collections[7]. Il a légué à d'autres une partie de sa bibliothèque ; les livres sur les brachiopodes ont été légués à Louis Joubin.
-Bibliothécaire
-En 1871, il est nommé bibliothécaire surnuméraire de la ville de Laval ; puis en 1874 bibliothécaire-adjoint, et en 1883 titulaire[8]. En 1894, il abandonne la Bibliothèque après l'avoir considérablement enrichie, pour ne conserver que l'administration du Musée archéologique et paléontologique de Laval.
-Géologie
-Président de la Société géologique de France[9], fondateur d’une revue de paléontologie, il a été bibliothécaire titulaire de Laval. Il est conservateur du Musée archéologique et paléontologique de Laval en janvier 1872.
-En mai 1884, il entre au Service de la Carte géologique de France en qualité de collaborateur adjoint, puis en juin 1889 comme collaborateur principal[10].
-Chaque année en hiver, le couple Œhlert passait plusieurs mois à Paris dans le laboratoire de Paléontologie du Muséum national d'histoire naturelle et dans celui de Géologie de la Faculté des Sciences à la Sorbonne[11]. Ils nouent des amitiés avec Paul Henri Fischer et Ernest Munier-Chalmas[12].
+          <t>Origine et famille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son grand-père est Jean-Daniel Œhlert (ou Öhlert), dit le Grand-Pierrot ou le Grand-Allemand (° 6 juillet 1765 Ostheim - † 5 décembre 1814), est un militaire qui s'illustra particulièrement lors de la Chouannerie en Mayenne. Son père est Victor Henri Œhlert (1803-1883), propriétaire négociant et sa mère est Adèle Féron (1820-1895).
+Il s'est marié avec Pauline Crié (1854-1911) en 1874 à Laval. Ils n'ont pas eu d'enfants.
+Pauline Œhlert est une collaboratrice infatigable pour son mari. Avec elle, il parcourut tous les coins de la région, il fit tous ses voyages en France et à l'étranger, il rassembla tous les matériaux paléontologiques, base de leurs travaux. Ensemble, ils effectuèrent le classement des collections du Musée, ainsi que la rédaction tous leurs mémoires. Leur collaboration se traduisait par la signature D.-P. OEhlert (Daniel-Pauline).
+À la mort de sa femme, il ne s'occupa plus que d'archéologie. Il entreprit alors de restaurer, presque entièrement à ses frais, le château de Laval. Il employa toute son activité à la restauration de ce monument historique. Il y meurt sur sa demande en 1920.
+Par testament, il a laissé à la ville de Laval tout ce qui lui en restait, pour achever son œuvre et installer dans le château transformé en musée, ses collections. Il a légué à d'autres une partie de sa bibliothèque ; les livres sur les brachiopodes ont été légués à Louis Joubin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Daniel_Œhlert</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daniel_%C5%92hlert</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Bibliothécaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1871, il est nommé bibliothécaire surnuméraire de la ville de Laval ; puis en 1874 bibliothécaire-adjoint, et en 1883 titulaire. En 1894, il abandonne la Bibliothèque après l'avoir considérablement enrichie, pour ne conserver que l'administration du Musée archéologique et paléontologique de Laval.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Daniel_Œhlert</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daniel_%C5%92hlert</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Président de la Société géologique de France, fondateur d’une revue de paléontologie, il a été bibliothécaire titulaire de Laval. Il est conservateur du Musée archéologique et paléontologique de Laval en janvier 1872.
+En mai 1884, il entre au Service de la Carte géologique de France en qualité de collaborateur adjoint, puis en juin 1889 comme collaborateur principal.
+Chaque année en hiver, le couple Œhlert passait plusieurs mois à Paris dans le laboratoire de Paléontologie du Muséum national d'histoire naturelle et dans celui de Géologie de la Faculté des Sciences à la Sorbonne. Ils nouent des amitiés avec Paul Henri Fischer et Ernest Munier-Chalmas.
 En 1910, Daniel Œhlert redevient vice-président de la Société géologique de France, poste qu'il occupa déjà en 1891 en même temps que son épouse Pauline Crié. En janvier 1911, il est élu président, mais son épouse décède peu de temps après.
-Le couple est ami et disciple d'Edmond Hébert et d'Albert Gaudry, d'Auguste Michel Lévy et de Marcel Bertrand, d'Albert de Lapparent et d'Ernest Munier-Chalmas. Au plan international, Daniel Œhlert a eu des échanges avec des chercheurs d'Amérique du Nord comme les stratigraphes et paléontologues James Hall (1811-1898), élu en 1884 correspondant étranger de l'Académie des Sciences de Paris, et John M. Clarke (1857-1925), tous deux ayant été directeurs du New York State Museum[13].
+Le couple est ami et disciple d'Edmond Hébert et d'Albert Gaudry, d'Auguste Michel Lévy et de Marcel Bertrand, d'Albert de Lapparent et d'Ernest Munier-Chalmas. Au plan international, Daniel Œhlert a eu des échanges avec des chercheurs d'Amérique du Nord comme les stratigraphes et paléontologues James Hall (1811-1898), élu en 1884 correspondant étranger de l'Académie des Sciences de Paris, et John M. Clarke (1857-1925), tous deux ayant été directeurs du New York State Museum.
 Il fut élu en 1900 Correspondant de l'Académie des Sciences dans la section de géologie. Il est nommé en 1895 Chevalier de la Légion d'honneur, puis Officier de la Légion d'honneur en 1912. Il est membre titulaire de Mayenne-Sciences ; membre de la Société géologique et minéralogique de Bretagne (1920).
-Travaux
-Il a travaillé principalement sur les peuplements des mers paléozoïques de l'Ouest de la France. Il a fait de très nombreuses découvertes paléontologiques en Mayenne. Il se consacra plus particulièrement à l'étude des Crinoïdes, des Trilobites et surtout des Brachiopodes[14]. Sa collection est déposée au Musée des Sciences de Laval[15].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Daniel_Œhlert</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daniel_%C5%92hlert</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Travaux</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Il a travaillé principalement sur les peuplements des mers paléozoïques de l'Ouest de la France. Il a fait de très nombreuses découvertes paléontologiques en Mayenne. Il se consacra plus particulièrement à l'étude des Crinoïdes, des Trilobites et surtout des Brachiopodes. Sa collection est déposée au Musée des Sciences de Laval.
 En 1877 que, Daniel Œhlert publie Sur les fossiles dévoniens du département de la Mayenne dans le Bulletin de la Société géologique de France. Il y a ensuite une centaine de travaux qui suivent jusqu'en 1911, date du décès de son épouse.
 Daniel Œhlert a participé à :
-la publications des résultats[16] des expéditions scientifiques du Travailleur et du Talisman pendant les années 1880, 1881, 1882 et 1883.
-la publications des résultats[17] lors des premières croisières de l'Hirondelle lors des campagnes scientifiques d'Albert Ier de Monaco.
+la publications des résultats des expéditions scientifiques du Travailleur et du Talisman pendant les années 1880, 1881, 1882 et 1883.
+la publications des résultats lors des premières croisières de l'Hirondelle lors des campagnes scientifiques d'Albert Ier de Monaco.
 la rédaction du Dictionnaire historique, topographique et biographique de la Mayenne, de l'Abbé Angot : à propos de chaque localité, Œhlert a rédigé une note géologique.
 la rédaction des documents scientifiques produits par l'expédition Première expédition Charcot, dirigée par Jean-Baptiste Charcot pour la partie sur les brachiopodes : Vers et brachiopodes (1908)
 lorsque Paul Henri Fischer édita son Manuel de Conchyliologie, il chargea D.-P. OEhlert de rédiger un important complément sur les Brachiopodes.
-la publication, sous forme de fiches séparées, des descriptions originales et des photographies des types fondamentaux d'animaux fossiles. C'était la Paloeonlologia universalis[18]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Daniel_%C5%92hlert</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+la publication, sous forme de fiches séparées, des descriptions originales et des photographies des types fondamentaux d'animaux fossiles. C'était la Paloeonlologia universalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Daniel_Œhlert</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Daniel_%C5%92hlert</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>L'ensemble des publications de Daniel Œhlert
 Daniel Œhlert est l'auteur de l'appendice Brachiopodes du Manuel de conchyliologie et de paléontologie conchyliologique de Paul Henri Fischer (1880-1887)  Réédition de l'ouvrage "Manuel de conchyliologie et de paléontologie conchyliologique (3 tomes)" (1880-1887).</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Daniel_%C5%92hlert</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Daniel_Œhlert</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Daniel_%C5%92hlert</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Œhlert D. (1877).- Sur les fossiles dévoniens du département de la Mayenne.- Bulletin de la Société géologique de France, Paris, (3) vol. 5, p. 578-603, pl. 9-10.
 Œhlert D. (1878).- Description de deux nouveaux genres de Crinoïdes du terrain dévonien de la Mayenne.- Bulletin de la Société géologique de France, Paris, (3) t. VII, p. 6-10, pl. 1-2.
@@ -710,31 +836,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Daniel_%C5%92hlert</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Daniel_Œhlert</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Daniel_%C5%92hlert</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Taxons</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Areostrophia
@@ -784,31 +912,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Daniel_%C5%92hlert</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Daniel_Œhlert</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Daniel_%C5%92hlert</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Médaille d'argent pour ses travaux de géologie par le Comité des Sociétés savantes du ministère de l'Instruction publique en février 1880.
 Médaille d'argent à la Réunion des Sociétés savantes le 22 avril 1880.
@@ -820,34 +950,36 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Daniel_%C5%92hlert</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Daniel_Œhlert</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Daniel_%C5%92hlert</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>La municipalité de Laval a donné à l'ancienne rue du Palais, le nom de rue Daniel-Œhlert, et depuis le 4 décembre 2010, cette voie s'appelle rue Pauline et Daniel Œhlert ; située dans le centre-ville de Laval, elle débouche à côté du Musée du Vieux-Château, place de la Trémoille.
-Université de Rennes : une des salles du laboratoire de géologie de l'Université de Rennes porte le nom de Daniel Œhlert[19].</t>
+Université de Rennes : une des salles du laboratoire de géologie de l'Université de Rennes porte le nom de Daniel Œhlert.</t>
         </is>
       </c>
     </row>
